--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyMovingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\move24day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1768E53-4B67-4E68-A459-C632F27291F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765E973-C4EA-48B6-A51C-16FD8EB99CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1755" windowWidth="18375" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19995" yWindow="675" windowWidth="18825" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +719,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -732,9 +729,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,8 +837,71 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -855,18 +912,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -891,74 +936,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1308,542 +1299,536 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
-    <col min="3" max="5" width="7.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="6" customWidth="1"/>
-    <col min="7" max="9" width="7.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="5" width="7.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="5" customWidth="1"/>
+    <col min="7" max="9" width="7.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="51">
+      <c r="J2" s="7"/>
+      <c r="K2" s="80">
         <f ca="1">TODAY()</f>
-        <v>45777</v>
-      </c>
-      <c r="L2" s="52"/>
+        <v>45782</v>
+      </c>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="7" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="8" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="5" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="40"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="10" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="70"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="42" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="39" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="71"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="42" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="39" t="s">
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="71"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="42" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="71"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="42" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="39" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="42" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="39" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="71"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="42" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="39" t="s">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="71"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="42" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="39" t="s">
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="66"/>
-      <c r="L15" s="71"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="42" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="39" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="42" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="39" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="66"/>
-      <c r="L17" s="71"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="53"/>
     </row>
     <row r="18" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="42" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="39" t="s">
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="66"/>
-      <c r="L18" s="71"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="42" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="39" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="71"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="42" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="39" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="71"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="65" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>0</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="32" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="26">
         <v>0</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="85"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L25"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
@@ -1854,6 +1839,12 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\move24day\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyMovingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765E973-C4EA-48B6-A51C-16FD8EB99CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1768E53-4B67-4E68-A459-C632F27291F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19995" yWindow="675" windowWidth="18825" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="1755" windowWidth="18375" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +719,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -729,6 +732,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +843,54 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -870,86 +924,41 @@
     <xf numFmtId="177" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1299,536 +1308,542 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
-    <col min="3" max="5" width="7.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="5" customWidth="1"/>
-    <col min="7" max="9" width="7.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="5" width="7.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="6" customWidth="1"/>
+    <col min="7" max="9" width="7.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="41" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="80">
+      <c r="J2" s="8"/>
+      <c r="K2" s="51">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
-      </c>
-      <c r="L2" s="81"/>
+        <v>45777</v>
+      </c>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="6" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="69"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="7" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="43" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="82" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="79"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="52"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="40" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="37" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="53"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="40" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="37" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="40" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="53"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="40" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="37" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="40" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="37" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="40" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="37" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="53"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="40" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="37" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="53"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="40" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="37" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="53"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="40" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="37" t="s">
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="40" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="37" t="s">
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="53"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="71"/>
     </row>
     <row r="19" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="40" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="37" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="53"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="40" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="37" t="s">
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="53"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="71"/>
     </row>
     <row r="21" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="46" t="s">
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="47" t="s">
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="26">
         <v>0</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="30" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="79"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="28">
         <v>0</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="82"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L25"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
@@ -1839,12 +1854,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyMovingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\move24day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1768E53-4B67-4E68-A459-C632F27291F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA444A6-2475-4512-B182-E9B8E76D6A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1755" windowWidth="18375" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="840" windowWidth="18825" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;;"/>
     <numFmt numFmtId="177" formatCode="0;\-0;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,14 +344,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -703,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +711,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -732,9 +721,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,7 +829,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,16 +874,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,74 +907,41 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1302,539 +1285,539 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
-    <col min="3" max="5" width="7.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="6" customWidth="1"/>
-    <col min="7" max="9" width="7.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="5" width="7.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="5" customWidth="1"/>
+    <col min="7" max="9" width="7.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="51">
+      <c r="J2" s="7"/>
+      <c r="K2" s="60">
         <f ca="1">TODAY()</f>
-        <v>45777</v>
-      </c>
-      <c r="L2" s="52"/>
+        <v>45782</v>
+      </c>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="7" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="8" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="5" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="40"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="10" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="70"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="42" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="39" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="71"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="42" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="39" t="s">
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="71"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="42" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="71"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="42" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="39" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="42" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="39" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="71"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="42" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="39" t="s">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="71"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="42" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="39" t="s">
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="66"/>
-      <c r="L15" s="71"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="42" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="39" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="42" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="39" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="66"/>
-      <c r="L17" s="71"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="53"/>
     </row>
     <row r="18" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="42" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="39" t="s">
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="66"/>
-      <c r="L18" s="71"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="42" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="39" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="71"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="42" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="39" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="71"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="65" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>0</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="32" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="75"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="26">
         <v>0</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="85"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="81"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/final.xlsx
+++ b/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\move24day\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA444A6-2475-4512-B182-E9B8E76D6A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A8B5A8-B611-41F4-9289-38CAD45C40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="840" windowWidth="18825" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="840" windowWidth="31710" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,8 +865,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,42 +940,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1285,7 +1283,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1310,59 +1308,59 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="60">
+      <c r="K2" s="71">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
-      </c>
-      <c r="L2" s="61"/>
+        <v>45785</v>
+      </c>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="59"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="32"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
@@ -1380,11 +1378,11 @@
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="59"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
@@ -1401,11 +1399,11 @@
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="59"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="56" t="s">
         <v>55</v>
       </c>
@@ -1417,15 +1415,15 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="82"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1704,8 +1702,8 @@
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
@@ -1721,15 +1719,15 @@
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="30" t="s">
         <v>51</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="75"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="36" t="s">
@@ -1740,17 +1738,17 @@
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
@@ -1759,13 +1757,13 @@
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="31"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="81"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1820,14 +1818,7 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L25"/>
-    <mergeCell ref="J1:L1"/>
+  <mergeCells count="15">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -1837,6 +1828,12 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A8B5A8-B611-41F4-9289-38CAD45C40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A5CBE-C14F-4A6E-B283-5261BA99B511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="840" windowWidth="31710" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13455" yWindow="3720" windowWidth="31710" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,39 +868,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,6 +908,36 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1283,7 +1280,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1308,59 +1305,59 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="71">
+      <c r="K2" s="60">
         <f ca="1">TODAY()</f>
         <v>45785</v>
       </c>
-      <c r="L2" s="72"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="70"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="32"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
@@ -1378,11 +1375,11 @@
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="70"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
@@ -1399,11 +1396,11 @@
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="70"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="56" t="s">
         <v>55</v>
       </c>
@@ -1420,10 +1417,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1702,8 +1699,8 @@
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
@@ -1719,15 +1716,15 @@
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="30" t="s">
         <v>51</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="75"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="36" t="s">
@@ -1738,17 +1735,17 @@
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
@@ -1757,13 +1754,13 @@
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="31"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="81"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1818,7 +1815,7 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="9">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -1828,12 +1825,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A5CBE-C14F-4A6E-B283-5261BA99B511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015DD26-1889-4A32-BCB0-71E9FE397852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13455" yWindow="3720" windowWidth="31710" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,15 +883,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -936,6 +927,24 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1289,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1305,22 +1314,22 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1335,12 +1344,12 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1352,12 +1361,12 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="32"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
@@ -1375,11 +1384,11 @@
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="59"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
@@ -1396,11 +1405,11 @@
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="59"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="56" t="s">
         <v>55</v>
       </c>
@@ -1700,7 +1709,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="72"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
@@ -1717,14 +1726,14 @@
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="30" t="s">
         <v>51</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="75"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="36" t="s">
@@ -1736,16 +1745,16 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="72"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
@@ -1755,12 +1764,12 @@
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="31"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="81"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1815,16 +1824,12 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015DD26-1889-4A32-BCB0-71E9FE397852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C81AC8-8009-4769-969F-955AF61E60CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="3720" windowWidth="31710" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13455" yWindow="3720" windowWidth="18750" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +868,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,53 +932,14 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1288,8 +1282,8 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1314,59 +1308,59 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="60">
+      <c r="K2" s="71">
         <f ca="1">TODAY()</f>
         <v>45785</v>
       </c>
-      <c r="L2" s="61"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="59"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="32"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
@@ -1384,11 +1378,11 @@
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
@@ -1405,11 +1399,11 @@
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="56" t="s">
         <v>55</v>
       </c>
@@ -1426,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1708,8 +1702,8 @@
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="69"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
@@ -1725,15 +1719,15 @@
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="69"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="30" t="s">
         <v>51</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="36" t="s">
@@ -1744,17 +1738,17 @@
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="69"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
@@ -1763,13 +1757,13 @@
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="69"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="31"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1824,12 +1818,22 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C81AC8-8009-4769-969F-955AF61E60CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D86D24-E506-4324-BDD8-DFC13A3045F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13455" yWindow="3720" windowWidth="18750" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,39 +868,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,6 +899,36 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1282,8 +1279,8 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1308,59 +1305,59 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="71">
+      <c r="K2" s="60">
         <f ca="1">TODAY()</f>
         <v>45785</v>
       </c>
-      <c r="L2" s="72"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="70"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="32"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
@@ -1378,11 +1375,11 @@
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="70"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
@@ -1399,11 +1396,11 @@
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="70"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="56" t="s">
         <v>55</v>
       </c>
@@ -1420,10 +1417,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1702,8 +1699,8 @@
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
@@ -1719,15 +1716,15 @@
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="30" t="s">
         <v>51</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="36" t="s">
@@ -1738,17 +1735,17 @@
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
@@ -1757,13 +1754,13 @@
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="31"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1818,7 +1815,7 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="9">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -1828,12 +1825,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D86D24-E506-4324-BDD8-DFC13A3045F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185E160-0CA6-47E0-A6A6-05882B3A1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13455" yWindow="3720" windowWidth="18750" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,6 +928,15 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1279,8 +1288,8 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1335,12 +1344,12 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1352,12 +1361,12 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="32"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
@@ -1375,11 +1384,11 @@
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="59"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="43" t="s">
         <v>54</v>
       </c>
@@ -1396,11 +1405,11 @@
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="59"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="56" t="s">
         <v>55</v>
       </c>
@@ -1815,7 +1824,7 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -1823,8 +1832,6 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185E160-0CA6-47E0-A6A6-05882B3A1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031F4F0-D1AD-4AFC-BD2E-175AF8AB6766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13455" yWindow="3720" windowWidth="18750" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,13 +939,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1289,7 +1289,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1824,12 +1824,10 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:H2"/>
   </mergeCells>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031F4F0-D1AD-4AFC-BD2E-175AF8AB6766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A02C6F1-626B-4144-90B1-0882881A8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13455" yWindow="3720" windowWidth="18750" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t xml:space="preserve"> 이사 견적 및 계약서            </t>
   </si>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>컴퓨터&amp;모니터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   보관료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -902,27 +903,18 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -946,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1289,7 +1284,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1305,69 +1300,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="41" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="60">
+      <c r="K2" s="59">
         <f ca="1">TODAY()</f>
         <v>45785</v>
       </c>
-      <c r="L2" s="61"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="59"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="32"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
       </c>
@@ -1377,59 +1372,59 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="43" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="42" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="56" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="55" t="s">
         <v>55</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1438,338 +1433,340 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="52"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="40" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="37" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="53"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="40" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="37" t="s">
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="40" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="53"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="40" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="37" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="40" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="37" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="40" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="37" t="s">
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="53"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="40" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="37" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="53"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="40" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="37" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="53"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="40" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="37" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="40" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="37" t="s">
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="53"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="40" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="37" t="s">
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="53"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="40" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="37" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="53"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="46" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="47" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="81"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>0</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="30" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>0</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="29" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="72"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\move24day-main\move24day-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Downloads\250510-main\250510-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A02C6F1-626B-4144-90B1-0882881A8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA67EA2-1CAA-47EF-A360-76EC18B23B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="3720" windowWidth="18750" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28755" yWindow="330" windowWidth="31710" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -752,9 +752,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="42" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -868,50 +865,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -921,26 +882,65 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1284,7 +1284,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1300,69 +1300,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="59">
+      <c r="K2" s="72">
         <f ca="1">TODAY()</f>
-        <v>45785</v>
-      </c>
-      <c r="L2" s="60"/>
+        <v>45788</v>
+      </c>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="58"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="31"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="7" t="s">
         <v>57</v>
       </c>
@@ -1372,59 +1372,59 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="42" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="41" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="55" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="54" t="s">
         <v>55</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="56"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1433,340 +1433,340 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="51"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="39" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="36" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="52"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="39" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="36" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="52"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="39" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="52"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="39" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="36" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="39" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="36" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="52"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="39" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="36" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="52"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="39" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="36" t="s">
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="52"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="39" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="36" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="52"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="39" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="36" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="52"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="39" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="36" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="52"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="39" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="36" t="s">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="52"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="39" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="36" t="s">
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="52"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="45" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="46" t="s">
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
     </row>
     <row r="22" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="29" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="81"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>0</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="58"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="28" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="74"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
     </row>
     <row r="26" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1821,7 +1821,10 @@
       <c r="L29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
